--- a/data/case1/5/P2_1.xlsx
+++ b/data/case1/5/P2_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.31686237110869797</v>
+        <v>0.38267251156081272</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999994044104312</v>
+        <v>-0.0099999993713915103</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999993947369461</v>
+        <v>-0.063903958957496343</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999837549069</v>
+        <v>-0.011999999824901408</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999994028618886</v>
+        <v>-0.0059999993584289868</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.018891163679619183</v>
+        <v>-0.0059999993378987426</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999271739455</v>
+        <v>-0.019999999225223775</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999264944002</v>
+        <v>-0.019999999221517406</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.005999999368570208</v>
+        <v>-0.0059999993301991239</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999993623165437</v>
+        <v>-0.0059999993288215592</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.004499999375269681</v>
+        <v>-0.0044999993407230932</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999993619896941</v>
+        <v>-0.0059999993288268882</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999993568018439</v>
+        <v>-0.0059999993305801524</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999308026865</v>
+        <v>-0.011138823104215767</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.005999999355154273</v>
+        <v>-0.0059999993339250324</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999993551671515</v>
+        <v>0.045609868313091884</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.015196973836898664</v>
+        <v>-0.0059999993344170832</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999993319391791</v>
+        <v>-0.0089999993097231723</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999994117482274</v>
+        <v>-0.0089999993809799506</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999994063187927</v>
+        <v>-0.008999999374978529</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999994054892341</v>
+        <v>-0.0089999993739500184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999994048701737</v>
+        <v>-0.0089999993731506578</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.008999999388986879</v>
+        <v>-0.0089999993481466589</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999117939169</v>
+        <v>-0.041999999074698202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.04199999911289698</v>
+        <v>-0.041999999068885074</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999993840840204</v>
+        <v>-0.0070303228089798608</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999993829555898</v>
+        <v>-0.0059999993318449185</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999993790054162</v>
+        <v>-0.0059999993178498912</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.01199999932935647</v>
+        <v>-0.011999999260346783</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.056001838620472366</v>
+        <v>-0.019999999191838036</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999295927324</v>
+        <v>-0.014999999224656335</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.02099999924640894</v>
+        <v>-0.018765075719480606</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.027537754078116095</v>
+        <v>-0.0059999992947021852</v>
       </c>
     </row>
   </sheetData>
